--- a/biology/Botanique/Licania_membranacea/Licania_membranacea.xlsx
+++ b/biology/Botanique/Licania_membranacea/Licania_membranacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania membranacea est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre sud-américain.
-On le connaît en Guyane sous les noms de Gaulette noire[3], Gaulette (Créole)[4], Koko[5], Baaka koko, Santi koko (Nenge tongo), Blaka foenge (Sranan tongo), Wokiri kupesisni (Kali'na), Bukutru ateu (Palikur), Pali'ɨ (Wayãpi), et aussi Pintadinha au Brésil, Counter au Guyana[6].
+On le connaît en Guyane sous les noms de Gaulette noire, Gaulette (Créole), Koko, Baaka koko, Santi koko (Nenge tongo), Blaka foenge (Sranan tongo), Wokiri kupesisni (Kali'na), Bukutru ateu (Palikur), Pali'ɨ (Wayãpi), et aussi Pintadinha au Brésil, Counter au Guyana.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania membranacea est un arbre atteignant jusqu'à 35 m de haut.
 Les jeunes branches sont pubérulentes, devenant glabres et lenticellées par la suite. 
-Le bois est dur, très lourd (densité : 1,20[6]).
+Le bois est dur, très lourd (densité : 1,20).
 Ses vaisseaux sont plus ou moins bien disséminés, ne formant pas cependant d'amas distincts, au nombre de 2 à 6 par mm2, moyens à gros (150 à 240 µm). 
-Les thylles sont rares à abondants[5].
-La structure de son bois est atypique[7].
+Les thylles sont rares à abondants.
+La structure de son bois est atypique.
 Les stipules sont coriaces, linéaires, longs de 3 à 7 mm, persistants, adnés à la base du pétiole.
 Les pétioles sont longs de 8-12 mm, glabres ou glabrescents, non glanduleux, canaliculés, transversalement rugueux.
 Les limbes mesurent 8-19 x 3,7-7,8 cm, sont coriaces, de forme oblongue, avec un acumen fin long de 10-25 mm à l'apex, arrondi à subcuné à la base.
@@ -539,7 +553,7 @@
 L'ovaire est tomenteux, inséré à la base du réceptacle, avec le style laineux et de même taille que les filets.  
 Le fruit est pyriforme, long d'environ 2,5 cm, avec l'épicarpe (ou exocarpe) tomenteux de couleur brun roux.
 Le mésocarpe est fin, charnu.
-L'endocarpe est dur, fin, ligneux, hirsute à l'intérieur[3],[4].
+L'endocarpe est dur, fin, ligneux, hirsute à l'intérieur,.
 </t>
         </is>
       </c>
@@ -568,9 +582,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania membranacea est présent à Trinidad, au Venezuela, en Guyane, et à l'est du Brésil amazonien[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania membranacea est présent à Trinidad, au Venezuela, en Guyane, et à l'est du Brésil amazonien.
 </t>
         </is>
       </c>
@@ -599,13 +615,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania membranacea pousse sur les pentes boisées et les forêts de terre ferme (non inondées)[3].
-Il fleurit en Septembre, et fructifie en novembre[4].
-Licania membranacea est une espèce à fruits charnus zoochores[8], à graines pesant l0,3 g en moyenne, et à plantules sciaphiles, dont la probabilité de survie est corrélée à la hauteur des semis[9].
-Licania membranacea est souvent associé à la liane “cipó-titica” (Heteropsis flexuosa) employée en vannerie traditionnelle au Venezuela[10].
-La captation racinaire de Licania membranacea a été mesurée[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania membranacea pousse sur les pentes boisées et les forêts de terre ferme (non inondées).
+Il fleurit en Septembre, et fructifie en novembre.
+Licania membranacea est une espèce à fruits charnus zoochores, à graines pesant l0,3 g en moyenne, et à plantules sciaphiles, dont la probabilité de survie est corrélée à la hauteur des semis.
+Licania membranacea est souvent associé à la liane “cipó-titica” (Heteropsis flexuosa) employée en vannerie traditionnelle au Venezuela.
+La captation racinaire de Licania membranacea a été mesurée.
 </t>
         </is>
       </c>
@@ -634,10 +652,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cendres de Licania membranacea (ainsi que d'autres Licania) sont utilisées par des amérindiens en Guyane, pour dégraisser l'argile de poterie[6].
-Le bois est de couleur brune avec des marbrures plus sombres, lourd, très siliceux et très difficile à travailler, et est donc peu utilisé, excepté pour des perches[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cendres de Licania membranacea (ainsi que d'autres Licania) sont utilisées par des amérindiens en Guyane, pour dégraisser l'argile de poterie.
+Le bois est de couleur brune avec des marbrures plus sombres, lourd, très siliceux et très difficile à travailler, et est donc peu utilisé, excepté pour des perches.
 </t>
         </is>
       </c>
@@ -666,9 +686,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Caraipa latifolia (synonyme de Licania membranacea)[12] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Caraipa latifolia (synonyme de Licania membranacea) : 
 « CARAIPA (latifolia) foliis latis, ovatis, acuminatis, ſubtùs cinereis. (Tabula 224. Fig. 3.)
 LE CARAIPÉ à large feuille. (Planches 224. fig.3)
 Cette troiſième eſpèce diffère [de Caraipa parvifolia et Licania alba] par ſes feuilles terminées par une longue pointe mouſſe. Elles ont ſix pouces de longueur, ſur trois de largeur.
